--- a/epi.xlsx
+++ b/epi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15731" windowHeight="8400" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1064,13 +1064,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="90000">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1145,13 +1175,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="90000">
+                  <a:schemeClr val="accent2"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1226,13 +1286,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="90000">
+                  <a:schemeClr val="accent3"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1307,13 +1397,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="90000">
+                  <a:schemeClr val="accent4"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1456,6 +1576,41 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1489,8 +1644,46 @@
         <c:crossAx val="422236812"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.05"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1637,13 +1830,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="90000">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1699,8 +1922,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="246"/>
-        <c:overlap val="-28"/>
+        <c:gapWidth val="216"/>
+        <c:overlap val="-32"/>
         <c:axId val="982188284"/>
         <c:axId val="405702997"/>
       </c:barChart>
@@ -1773,6 +1996,48 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Spped up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.161578947368421"/>
+              <c:y val="0.367199074074074"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1807,6 +2072,44 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1815,37 +2118,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1953,13 +2225,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="90000">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2015,8 +2317,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="246"/>
-        <c:overlap val="-28"/>
+        <c:gapWidth val="216"/>
+        <c:overlap val="-32"/>
         <c:axId val="525400572"/>
         <c:axId val="746942388"/>
       </c:barChart>
@@ -2089,6 +2391,48 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>MPKI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.139473684210526"/>
+              <c:y val="0.414189814814815"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2123,6 +2467,44 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2131,37 +2513,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2269,13 +2620,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="90000">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2331,8 +2712,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="246"/>
-        <c:overlap val="-28"/>
+        <c:gapWidth val="216"/>
+        <c:overlap val="-32"/>
         <c:axId val="800675536"/>
         <c:axId val="833416235"/>
       </c:barChart>
@@ -2405,6 +2786,48 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Coverage(%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.197788309636651"/>
+              <c:y val="0.347754491017964"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2439,6 +2862,44 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2447,37 +2908,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2585,13 +3015,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="90000">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2647,8 +3107,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="246"/>
-        <c:overlap val="-28"/>
+        <c:gapWidth val="216"/>
+        <c:overlap val="-32"/>
         <c:axId val="791472205"/>
         <c:axId val="369206386"/>
       </c:barChart>
@@ -2721,6 +3181,48 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Accuracy(%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.175966932388544"/>
+              <c:y val="0.368028624192059"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2755,6 +3257,44 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2763,37 +3303,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3036,7 +3545,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10004">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3139,18 +3648,53 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="90000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-      <a:effectLst/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+            <a:alpha val="30000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -3546,7 +4090,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10006">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3649,18 +4193,53 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="90000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-      <a:effectLst/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+            <a:alpha val="30000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -4056,7 +4635,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10006">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4159,18 +4738,53 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="90000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-      <a:effectLst/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+            <a:alpha val="30000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -4566,7 +5180,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10006">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4669,18 +5283,53 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="90000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-      <a:effectLst/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+            <a:alpha val="30000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -5076,7 +5725,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10006">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5179,18 +5828,53 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="90000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-      <a:effectLst/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+            <a:alpha val="30000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -5624,14 +6308,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>134620</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591820</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>40640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>40640</xdr:rowOff>
     </xdr:to>
@@ -5641,7 +6325,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4500880" y="40640"/>
+        <a:off x="6786880" y="40640"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5654,16 +6338,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>210820</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>401320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5671,7 +6355,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4577080" y="2875280"/>
+        <a:off x="5986780" y="2806700"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5685,15 +6369,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>270510</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5701,7 +6385,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7620" y="1488440"/>
+        <a:off x="411480" y="1473200"/>
         <a:ext cx="4019550" cy="2545080"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5715,15 +6399,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>906780</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>33020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5731,7 +6415,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7620" y="4117340"/>
+        <a:off x="906780" y="4048760"/>
         <a:ext cx="4301490" cy="2750820"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6005,8 +6689,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -6140,8 +6824,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
